--- a/excel/getLocation/test1.xlsx
+++ b/excel/getLocation/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\test\excel\getLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F573AE-E498-4F2D-829F-AAD153372522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888AA4E2-313C-4B2C-B2AC-F270A6499C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="345" windowWidth="22125" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1590" windowWidth="22125" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="469">
   <si>
     <t>行政区</t>
   </si>
@@ -230,6 +230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -241,6 +242,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -655,6 +657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -891,9 +894,6 @@
     <t>华为九碗十三花</t>
   </si>
   <si>
-    <t>广东省龙哥区坂田华为总部B区B3餐厅2楼</t>
-  </si>
-  <si>
     <t>清真菜、烤全羊</t>
   </si>
   <si>
@@ -913,9 +913,6 @@
   </si>
   <si>
     <t>西北烧烤</t>
-  </si>
-  <si>
-    <t>布吉地铁口，百合酒店对面，平安银行楼下</t>
   </si>
   <si>
     <t>伊纳其新疆主题餐厅</t>
@@ -1109,6 +1106,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1143,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1491,30 +1490,50 @@
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>phone</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>intro</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>district</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>privateRoom</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessHours</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>布吉地铁口百合酒店对面平安银行楼下</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省龙岗区坂田华为总部B区B3餐厅2楼</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1566,6 +1585,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1573,6 +1593,7 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1581,6 +1602,7 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1588,6 +1610,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1595,6 +1618,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1602,14 +1626,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1624,6 +1641,23 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1787,7 +1821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1854,9 +1888,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1872,11 +1903,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1898,6 +1926,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2176,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="B75" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2193,29 +2230,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="G1" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>462</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>464</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -2240,7 +2277,7 @@
       <c r="AC1" s="14"/>
     </row>
     <row r="2" spans="1:29" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -2281,7 +2318,7 @@
       <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2322,7 +2359,7 @@
       <c r="AC3" s="15"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -2363,7 +2400,7 @@
       <c r="AC4" s="15"/>
     </row>
     <row r="5" spans="1:29" ht="15" thickBot="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -2404,7 +2441,7 @@
       <c r="AC5" s="15"/>
     </row>
     <row r="6" spans="1:29" ht="15" thickBot="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -2445,7 +2482,7 @@
       <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="1:29" ht="15" thickBot="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2486,7 +2523,7 @@
       <c r="AC7" s="15"/>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2527,7 +2564,7 @@
       <c r="AC8" s="15"/>
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2568,7 +2605,7 @@
       <c r="AC9" s="15"/>
     </row>
     <row r="10" spans="1:29" ht="15" thickBot="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -2609,7 +2646,7 @@
       <c r="AC10" s="15"/>
     </row>
     <row r="11" spans="1:29" ht="15" thickBot="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2648,7 +2685,7 @@
       <c r="AC11" s="15"/>
     </row>
     <row r="12" spans="1:29" ht="15" thickBot="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2687,7 +2724,7 @@
       <c r="AC12" s="15"/>
     </row>
     <row r="13" spans="1:29" ht="15" thickBot="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2730,7 +2767,7 @@
       <c r="AC13" s="15"/>
     </row>
     <row r="14" spans="1:29" ht="15" thickBot="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2769,7 +2806,7 @@
       <c r="AC14" s="15"/>
     </row>
     <row r="15" spans="1:29" ht="15" thickBot="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2810,7 +2847,7 @@
       <c r="AC15" s="15"/>
     </row>
     <row r="16" spans="1:29" ht="15" thickBot="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2851,7 +2888,7 @@
       <c r="AC16" s="15"/>
     </row>
     <row r="17" spans="1:29" ht="15" thickBot="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2892,7 +2929,7 @@
       <c r="AC17" s="15"/>
     </row>
     <row r="18" spans="1:29" ht="15" thickBot="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2933,7 +2970,7 @@
       <c r="AC18" s="15"/>
     </row>
     <row r="19" spans="1:29" ht="15" thickBot="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2974,7 +3011,7 @@
       <c r="AC19" s="15"/>
     </row>
     <row r="20" spans="1:29" ht="15" thickBot="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -3015,7 +3052,7 @@
       <c r="AC20" s="15"/>
     </row>
     <row r="21" spans="1:29" ht="15" thickBot="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -3056,7 +3093,7 @@
       <c r="AC21" s="15"/>
     </row>
     <row r="22" spans="1:29" ht="15" thickBot="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -3095,7 +3132,7 @@
       <c r="AC22" s="15"/>
     </row>
     <row r="23" spans="1:29" ht="15" thickBot="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -3136,7 +3173,7 @@
       <c r="AC23" s="15"/>
     </row>
     <row r="24" spans="1:29" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -3152,30 +3189,30 @@
         <v>87</v>
       </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
     </row>
     <row r="25" spans="1:29" ht="15" thickBot="1">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -3218,7 +3255,7 @@
       <c r="AC25" s="15"/>
     </row>
     <row r="26" spans="1:29" ht="15" thickBot="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -3261,7 +3298,7 @@
       <c r="AC26" s="15"/>
     </row>
     <row r="27" spans="1:29" ht="15" thickBot="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -3302,7 +3339,7 @@
       <c r="AC27" s="15"/>
     </row>
     <row r="28" spans="1:29" ht="15" thickBot="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -3343,7 +3380,7 @@
       <c r="AC28" s="15"/>
     </row>
     <row r="29" spans="1:29" ht="15" thickBot="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -3384,7 +3421,7 @@
       <c r="AC29" s="15"/>
     </row>
     <row r="30" spans="1:29" ht="15" thickBot="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -3425,7 +3462,7 @@
       <c r="AC30" s="15"/>
     </row>
     <row r="31" spans="1:29" ht="15" thickBot="1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -3462,7 +3499,7 @@
       <c r="AC31" s="15"/>
     </row>
     <row r="32" spans="1:29" ht="15" thickBot="1">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -3503,7 +3540,7 @@
       <c r="AC32" s="15"/>
     </row>
     <row r="33" spans="1:29" ht="15" thickBot="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -3546,7 +3583,7 @@
       <c r="AC33" s="15"/>
     </row>
     <row r="34" spans="1:29" ht="15" thickBot="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -3587,7 +3624,7 @@
       <c r="AC34" s="15"/>
     </row>
     <row r="35" spans="1:29" ht="15" thickBot="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -3630,7 +3667,7 @@
       <c r="AC35" s="15"/>
     </row>
     <row r="36" spans="1:29" ht="15" thickBot="1">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -3671,7 +3708,7 @@
       <c r="AC36" s="15"/>
     </row>
     <row r="37" spans="1:29" ht="15" thickBot="1">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -3708,7 +3745,7 @@
       <c r="AC37" s="15"/>
     </row>
     <row r="38" spans="1:29" ht="15" thickBot="1">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -3745,7 +3782,7 @@
       <c r="AC38" s="15"/>
     </row>
     <row r="39" spans="1:29" ht="15" thickBot="1">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -3786,7 +3823,7 @@
       <c r="AC39" s="15"/>
     </row>
     <row r="40" spans="1:29" ht="15" thickBot="1">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -3823,7 +3860,7 @@
       <c r="AC40" s="15"/>
     </row>
     <row r="41" spans="1:29" ht="15" thickBot="1">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -3860,7 +3897,7 @@
       <c r="AC41" s="15"/>
     </row>
     <row r="42" spans="1:29" ht="15" thickBot="1">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -3901,7 +3938,7 @@
       <c r="AC42" s="15"/>
     </row>
     <row r="43" spans="1:29" ht="15" thickBot="1">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -3942,7 +3979,7 @@
       <c r="AC43" s="15"/>
     </row>
     <row r="44" spans="1:29" ht="15" thickBot="1">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -3987,7 +4024,7 @@
       <c r="AC44" s="15"/>
     </row>
     <row r="45" spans="1:29" ht="15" thickBot="1">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -4028,7 +4065,7 @@
       <c r="AC45" s="15"/>
     </row>
     <row r="46" spans="1:29" ht="15" thickBot="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -4073,7 +4110,7 @@
       <c r="AC46" s="15"/>
     </row>
     <row r="47" spans="1:29" ht="15" thickBot="1">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -4114,7 +4151,7 @@
       <c r="AC47" s="15"/>
     </row>
     <row r="48" spans="1:29" ht="15" thickBot="1">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B48" s="15"/>
@@ -4147,7 +4184,7 @@
       <c r="AC48" s="15"/>
     </row>
     <row r="49" spans="1:29" ht="15" thickBot="1">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="15" t="s">
@@ -4217,7 +4254,7 @@
       <c r="AC50" s="15"/>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B51" s="15" t="s">
@@ -4258,7 +4295,7 @@
       <c r="AC51" s="15"/>
     </row>
     <row r="52" spans="1:29" ht="15" thickBot="1">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -4297,7 +4334,7 @@
       <c r="AC52" s="15"/>
     </row>
     <row r="53" spans="1:29" ht="15" thickBot="1">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -4336,7 +4373,7 @@
       <c r="AC53" s="15"/>
     </row>
     <row r="54" spans="1:29" ht="15" thickBot="1">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -4377,7 +4414,7 @@
       <c r="AC54" s="15"/>
     </row>
     <row r="55" spans="1:29" ht="15" thickBot="1">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -4416,7 +4453,7 @@
       <c r="AC55" s="15"/>
     </row>
     <row r="56" spans="1:29" ht="15" thickBot="1">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -4457,7 +4494,7 @@
       <c r="AC56" s="15"/>
     </row>
     <row r="57" spans="1:29" ht="15" thickBot="1">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -4496,7 +4533,7 @@
       <c r="AC57" s="15"/>
     </row>
     <row r="58" spans="1:29" ht="15" thickBot="1">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -4535,7 +4572,7 @@
       <c r="AC58" s="15"/>
     </row>
     <row r="59" spans="1:29" ht="15" thickBot="1">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B59" s="15" t="s">
@@ -4580,7 +4617,7 @@
       <c r="AC59" s="15"/>
     </row>
     <row r="60" spans="1:29" ht="15" thickBot="1">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -4617,7 +4654,7 @@
       <c r="AC60" s="15"/>
     </row>
     <row r="61" spans="1:29" ht="15" thickBot="1">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B61" s="21" t="s">
@@ -4656,7 +4693,7 @@
       <c r="AC61" s="21"/>
     </row>
     <row r="62" spans="1:29" ht="15" thickBot="1">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -4693,7 +4730,7 @@
       <c r="AC62" s="15"/>
     </row>
     <row r="63" spans="1:29" ht="15" thickBot="1">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B63" s="15" t="s">
@@ -4740,7 +4777,7 @@
       <c r="AC63" s="15"/>
     </row>
     <row r="64" spans="1:29" ht="15" thickBot="1">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -4777,7 +4814,7 @@
       <c r="AC64" s="15"/>
     </row>
     <row r="65" spans="1:29" ht="15" thickBot="1">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -4818,7 +4855,7 @@
       <c r="AC65" s="15"/>
     </row>
     <row r="66" spans="1:29" ht="15" thickBot="1">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B66" s="15" t="s">
@@ -4857,7 +4894,7 @@
       <c r="AC66" s="15"/>
     </row>
     <row r="67" spans="1:29" ht="15" thickBot="1">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B67" s="15" t="s">
@@ -4896,7 +4933,7 @@
       <c r="AC67" s="15"/>
     </row>
     <row r="68" spans="1:29" ht="15" thickBot="1">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -4937,7 +4974,7 @@
       <c r="AC68" s="15"/>
     </row>
     <row r="69" spans="1:29" ht="15" thickBot="1">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B69" s="15" t="s">
@@ -4978,7 +5015,7 @@
       <c r="AC69" s="15"/>
     </row>
     <row r="70" spans="1:29" ht="15" thickBot="1">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -5019,7 +5056,7 @@
       <c r="AC70" s="15"/>
     </row>
     <row r="71" spans="1:29" ht="15" thickBot="1">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B71" s="15"/>
@@ -5052,7 +5089,7 @@
       <c r="AC71" s="15"/>
     </row>
     <row r="72" spans="1:29" ht="15" thickBot="1">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -5070,7 +5107,7 @@
       <c r="H72" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="I72" s="27"/>
+      <c r="I72" s="26"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
@@ -5093,7 +5130,7 @@
       <c r="AC72" s="15"/>
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -5111,7 +5148,7 @@
       <c r="H73" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="I73" s="27"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
@@ -5134,7 +5171,7 @@
       <c r="AC73" s="15"/>
     </row>
     <row r="74" spans="1:29" ht="15" thickBot="1">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -5154,7 +5191,7 @@
         <v>235</v>
       </c>
       <c r="H74" s="15"/>
-      <c r="I74" s="27"/>
+      <c r="I74" s="26"/>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
@@ -5177,7 +5214,7 @@
       <c r="AC74" s="15"/>
     </row>
     <row r="75" spans="1:29" ht="15" thickBot="1">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -5201,7 +5238,7 @@
       <c r="H75" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="I75" s="27"/>
+      <c r="I75" s="26"/>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
@@ -5224,7 +5261,7 @@
       <c r="AC75" s="15"/>
     </row>
     <row r="76" spans="1:29" ht="15" thickBot="1">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -5240,7 +5277,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="27"/>
+      <c r="I76" s="26"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
@@ -5263,7 +5300,7 @@
       <c r="AC76" s="15"/>
     </row>
     <row r="77" spans="1:29" ht="15" thickBot="1">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -5283,7 +5320,7 @@
       <c r="H77" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="I77" s="27"/>
+      <c r="I77" s="26"/>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
@@ -5306,7 +5343,7 @@
       <c r="AC77" s="15"/>
     </row>
     <row r="78" spans="1:29" ht="15" thickBot="1">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B78" s="15" t="s">
@@ -5347,7 +5384,7 @@
       <c r="AC78" s="15"/>
     </row>
     <row r="79" spans="1:29" ht="15" thickBot="1">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -5392,7 +5429,7 @@
       <c r="AC79" s="15"/>
     </row>
     <row r="80" spans="1:29" ht="15" thickBot="1">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B80" s="15" t="s">
@@ -5433,7 +5470,7 @@
       <c r="AC80" s="15"/>
     </row>
     <row r="81" spans="1:29" ht="15" thickBot="1">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -5476,7 +5513,7 @@
       <c r="AC81" s="15"/>
     </row>
     <row r="82" spans="1:29" ht="15" thickBot="1">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -5517,7 +5554,7 @@
       <c r="AC82" s="15"/>
     </row>
     <row r="83" spans="1:29" ht="15" thickBot="1">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -5558,7 +5595,7 @@
       <c r="AC83" s="15"/>
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B84" s="19" t="s">
@@ -5574,44 +5611,44 @@
         <v>275</v>
       </c>
       <c r="H84" s="19"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="23"/>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="23"/>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="23"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
     </row>
     <row r="85" spans="1:29" ht="15" thickBot="1">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>277</v>
+        <v>468</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
@@ -5636,14 +5673,14 @@
       <c r="AC85" s="15"/>
     </row>
     <row r="86" spans="1:29" ht="15" thickBot="1">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B86" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="D86" s="15">
         <v>17724682290</v>
@@ -5652,7 +5689,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
@@ -5677,14 +5714,14 @@
       <c r="AC86" s="15"/>
     </row>
     <row r="87" spans="1:29" ht="15" thickBot="1">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B87" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
@@ -5714,14 +5751,14 @@
       <c r="AC87" s="15"/>
     </row>
     <row r="88" spans="1:29" ht="15" thickBot="1">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>467</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
@@ -5751,14 +5788,14 @@
       <c r="AC88" s="15"/>
     </row>
     <row r="89" spans="1:29" ht="15" thickBot="1">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
@@ -5788,14 +5825,14 @@
       <c r="AC89" s="15"/>
     </row>
     <row r="90" spans="1:29" ht="15" thickBot="1">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D90" s="15">
         <v>15323828307</v>
@@ -5803,10 +5840,10 @@
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
@@ -5831,20 +5868,20 @@
       <c r="AC90" s="15"/>
     </row>
     <row r="91" spans="1:29" ht="15" thickBot="1">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
@@ -5870,27 +5907,27 @@
       <c r="AC91" s="15"/>
     </row>
     <row r="92" spans="1:29" ht="15" thickBot="1">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D92" s="15">
         <v>15569236085</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -5915,27 +5952,27 @@
       <c r="AC92" s="15"/>
     </row>
     <row r="93" spans="1:29" ht="15" thickBot="1">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D93" s="15">
         <v>13510172303</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H93" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
@@ -5960,29 +5997,29 @@
       <c r="AC93" s="15"/>
     </row>
     <row r="94" spans="1:29" ht="15" thickBot="1">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D94" s="15">
         <v>13480900699</v>
       </c>
       <c r="E94" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G94" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="H94" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -6007,25 +6044,25 @@
       <c r="AC94" s="15"/>
     </row>
     <row r="95" spans="1:29" ht="15" thickBot="1">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="D95" s="25">
+        <v>310</v>
+      </c>
+      <c r="D95" s="24">
         <v>1.5809056242185999E+21</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -6050,23 +6087,23 @@
       <c r="AC95" s="15"/>
     </row>
     <row r="96" spans="1:29" ht="15" thickBot="1">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
@@ -6091,23 +6128,23 @@
       <c r="AC96" s="15"/>
     </row>
     <row r="97" spans="1:29" ht="15" thickBot="1">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
       <c r="G97" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
@@ -6132,20 +6169,20 @@
       <c r="AC97" s="15"/>
     </row>
     <row r="98" spans="1:29" ht="15" thickBot="1">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
       <c r="G98" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -6171,14 +6208,14 @@
       <c r="AC98" s="15"/>
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C99" s="19" t="s">
         <v>326</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>328</v>
       </c>
       <c r="D99" s="19">
         <v>13530005916</v>
@@ -6186,79 +6223,79 @@
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
       <c r="G99" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="22"/>
+    </row>
+    <row r="100" spans="1:29" ht="15" thickBot="1">
+      <c r="A100" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="H99" s="26"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="23"/>
-      <c r="S99" s="23"/>
-      <c r="T99" s="23"/>
-      <c r="U99" s="23"/>
-      <c r="V99" s="23"/>
-      <c r="W99" s="23"/>
-      <c r="X99" s="23"/>
-      <c r="Y99" s="23"/>
-      <c r="Z99" s="23"/>
-      <c r="AA99" s="23"/>
-      <c r="AB99" s="23"/>
-      <c r="AC99" s="23"/>
-    </row>
-    <row r="100" spans="1:29" ht="15" thickBot="1">
-      <c r="A100" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>331</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
       <c r="G100" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="H100" s="25"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="22"/>
+    </row>
+    <row r="101" spans="1:29" ht="15" thickBot="1">
+      <c r="A101" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="H100" s="26"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="23"/>
-      <c r="T100" s="23"/>
-      <c r="U100" s="23"/>
-      <c r="V100" s="23"/>
-      <c r="W100" s="23"/>
-      <c r="X100" s="23"/>
-      <c r="Y100" s="23"/>
-      <c r="Z100" s="23"/>
-      <c r="AA100" s="23"/>
-      <c r="AB100" s="23"/>
-      <c r="AC100" s="23"/>
-    </row>
-    <row r="101" spans="1:29" ht="15" thickBot="1">
-      <c r="A101" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="D101" s="15">
         <v>13922856231</v>
@@ -6266,10 +6303,10 @@
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
@@ -6294,14 +6331,14 @@
       <c r="AC101" s="15"/>
     </row>
     <row r="102" spans="1:29" ht="15" thickBot="1">
-      <c r="A102" s="34" t="s">
-        <v>326</v>
+      <c r="A102" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -6331,25 +6368,25 @@
       <c r="AC102" s="15"/>
     </row>
     <row r="103" spans="1:29" ht="15" thickBot="1">
-      <c r="A103" s="34" t="s">
-        <v>326</v>
+      <c r="A103" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B103" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D103" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>341</v>
       </c>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
       <c r="G103" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
@@ -6374,14 +6411,14 @@
       <c r="AC103" s="15"/>
     </row>
     <row r="104" spans="1:29" ht="15" thickBot="1">
-      <c r="A104" s="34" t="s">
-        <v>326</v>
+      <c r="A104" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D104" s="15">
         <v>15103099206</v>
@@ -6413,20 +6450,20 @@
       <c r="AC104" s="15"/>
     </row>
     <row r="105" spans="1:29" ht="15" thickBot="1">
-      <c r="A105" s="34" t="s">
-        <v>326</v>
+      <c r="A105" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H105" s="15" t="s">
         <v>71</v>
@@ -6454,27 +6491,27 @@
       <c r="AC105" s="15"/>
     </row>
     <row r="106" spans="1:29" ht="15" thickBot="1">
-      <c r="A106" s="34" t="s">
-        <v>326</v>
+      <c r="A106" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D106" s="15">
         <v>13993041926</v>
       </c>
       <c r="E106" s="15"/>
       <c r="F106" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="H106" s="15" t="s">
         <v>351</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
@@ -6499,14 +6536,14 @@
       <c r="AC106" s="15"/>
     </row>
     <row r="107" spans="1:29" ht="15" thickBot="1">
-      <c r="A107" s="34" t="s">
-        <v>326</v>
+      <c r="A107" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D107" s="15">
         <v>19926803910</v>
@@ -6514,10 +6551,10 @@
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
@@ -6542,23 +6579,23 @@
       <c r="AC107" s="15"/>
     </row>
     <row r="108" spans="1:29" ht="15" thickBot="1">
-      <c r="A108" s="34" t="s">
-        <v>326</v>
+      <c r="A108" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
@@ -6583,14 +6620,14 @@
       <c r="AC108" s="15"/>
     </row>
     <row r="109" spans="1:29" ht="15" thickBot="1">
-      <c r="A109" s="34" t="s">
-        <v>326</v>
+      <c r="A109" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D109" s="15">
         <v>15003667255</v>
@@ -6598,7 +6635,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="15"/>
@@ -6624,14 +6661,14 @@
       <c r="AC109" s="15"/>
     </row>
     <row r="110" spans="1:29" ht="15" thickBot="1">
-      <c r="A110" s="34" t="s">
-        <v>326</v>
+      <c r="A110" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D110" s="15">
         <v>18819057558</v>
@@ -6639,10 +6676,10 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -6667,14 +6704,14 @@
       <c r="AC110" s="15"/>
     </row>
     <row r="111" spans="1:29" ht="15" thickBot="1">
-      <c r="A111" s="34" t="s">
-        <v>326</v>
+      <c r="A111" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D111" s="15">
         <v>17693769996</v>
@@ -6682,7 +6719,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="G111" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
@@ -6708,14 +6745,14 @@
       <c r="AC111" s="15"/>
     </row>
     <row r="112" spans="1:29" ht="15" thickBot="1">
-      <c r="A112" s="34" t="s">
-        <v>326</v>
+      <c r="A112" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
@@ -6745,23 +6782,23 @@
       <c r="AC112" s="15"/>
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="D113" s="15">
         <v>13714013911</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
@@ -6788,20 +6825,20 @@
       <c r="AC113" s="15"/>
     </row>
     <row r="114" spans="1:29" ht="15" thickBot="1">
-      <c r="A114" s="35" t="s">
-        <v>374</v>
+      <c r="A114" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
       <c r="G114" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
@@ -6827,11 +6864,11 @@
       <c r="AC114" s="15"/>
     </row>
     <row r="115" spans="1:29" ht="15" thickBot="1">
-      <c r="A115" s="35" t="s">
-        <v>374</v>
+      <c r="A115" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15">
@@ -6841,7 +6878,7 @@
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -6866,25 +6903,25 @@
       <c r="AC115" s="15"/>
     </row>
     <row r="116" spans="1:29" ht="15" thickBot="1">
-      <c r="A116" s="35" t="s">
-        <v>374</v>
+      <c r="A116" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B116" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D116" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>386</v>
       </c>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="G116" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -6909,20 +6946,20 @@
       <c r="AC116" s="15"/>
     </row>
     <row r="117" spans="1:29" ht="15" thickBot="1">
-      <c r="A117" s="35" t="s">
-        <v>374</v>
+      <c r="A117" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="G117" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
@@ -6948,14 +6985,14 @@
       <c r="AC117" s="15"/>
     </row>
     <row r="118" spans="1:29" ht="15" thickBot="1">
-      <c r="A118" s="35" t="s">
-        <v>374</v>
+      <c r="A118" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D118" s="15">
         <v>18038008507</v>
@@ -6967,7 +7004,7 @@
         <v>205</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H118" s="15" t="s">
         <v>71</v>
@@ -6995,29 +7032,29 @@
       <c r="AC118" s="15"/>
     </row>
     <row r="119" spans="1:29" ht="15" thickBot="1">
-      <c r="A119" s="35" t="s">
-        <v>374</v>
+      <c r="A119" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D119" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>397</v>
       </c>
       <c r="E119" s="15" t="s">
         <v>234</v>
       </c>
       <c r="F119" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H119" s="15" t="s">
         <v>398</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>400</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -7042,14 +7079,14 @@
       <c r="AC119" s="15"/>
     </row>
     <row r="120" spans="1:29" ht="15" thickBot="1">
-      <c r="A120" s="35" t="s">
-        <v>374</v>
+      <c r="A120" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D120" s="15">
         <v>18476558887</v>
@@ -7057,10 +7094,10 @@
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -7085,23 +7122,23 @@
       <c r="AC120" s="15"/>
     </row>
     <row r="121" spans="1:29" ht="15" thickBot="1">
-      <c r="A121" s="35" t="s">
-        <v>374</v>
+      <c r="A121" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
       <c r="G121" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -7126,14 +7163,14 @@
       <c r="AC121" s="15"/>
     </row>
     <row r="122" spans="1:29" ht="15" thickBot="1">
-      <c r="A122" s="35" t="s">
-        <v>374</v>
+      <c r="A122" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D122" s="15">
         <v>13641478841</v>
@@ -7141,7 +7178,7 @@
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
       <c r="G122" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -7167,25 +7204,25 @@
       <c r="AC122" s="15"/>
     </row>
     <row r="123" spans="1:29" ht="15" thickBot="1">
-      <c r="A123" s="35" t="s">
-        <v>374</v>
+      <c r="A123" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="B123" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D123" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>413</v>
       </c>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
       <c r="G123" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
@@ -7210,83 +7247,83 @@
       <c r="AC123" s="15"/>
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A124" s="36" t="s">
+      <c r="A124" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="C124" s="19" t="s">
         <v>416</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>418</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="23"/>
-      <c r="J124" s="23"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="23"/>
-      <c r="M124" s="23"/>
-      <c r="N124" s="23"/>
-      <c r="O124" s="23"/>
-      <c r="P124" s="23"/>
-      <c r="Q124" s="23"/>
-      <c r="R124" s="23"/>
-      <c r="S124" s="23"/>
-      <c r="T124" s="23"/>
-      <c r="U124" s="23"/>
-      <c r="V124" s="23"/>
-      <c r="W124" s="23"/>
-      <c r="X124" s="23"/>
-      <c r="Y124" s="23"/>
-      <c r="Z124" s="23"/>
-      <c r="AA124" s="23"/>
-      <c r="AB124" s="23"/>
-      <c r="AC124" s="23"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="22"/>
+      <c r="Q124" s="22"/>
+      <c r="R124" s="22"/>
+      <c r="S124" s="22"/>
+      <c r="T124" s="22"/>
+      <c r="U124" s="22"/>
+      <c r="V124" s="22"/>
+      <c r="W124" s="22"/>
+      <c r="X124" s="22"/>
+      <c r="Y124" s="22"/>
+      <c r="Z124" s="22"/>
+      <c r="AA124" s="22"/>
+      <c r="AB124" s="22"/>
+      <c r="AC124" s="22"/>
     </row>
     <row r="125" spans="1:29" ht="15" thickBot="1">
-      <c r="A125" s="36" t="s">
-        <v>416</v>
+      <c r="A125" s="34" t="s">
+        <v>414</v>
       </c>
       <c r="B125" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D125" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="C125" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
-      <c r="M125" s="23"/>
-      <c r="N125" s="23"/>
-      <c r="O125" s="23"/>
-      <c r="P125" s="23"/>
-      <c r="Q125" s="23"/>
-      <c r="R125" s="23"/>
-      <c r="S125" s="23"/>
-      <c r="T125" s="23"/>
-      <c r="U125" s="23"/>
-      <c r="V125" s="23"/>
-      <c r="W125" s="23"/>
-      <c r="X125" s="23"/>
-      <c r="Y125" s="23"/>
-      <c r="Z125" s="23"/>
-      <c r="AA125" s="23"/>
-      <c r="AB125" s="23"/>
-      <c r="AC125" s="23"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="22"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="22"/>
+      <c r="U125" s="22"/>
+      <c r="V125" s="22"/>
+      <c r="W125" s="22"/>
+      <c r="X125" s="22"/>
+      <c r="Y125" s="22"/>
+      <c r="Z125" s="22"/>
+      <c r="AA125" s="22"/>
+      <c r="AB125" s="22"/>
+      <c r="AC125" s="22"/>
     </row>
     <row r="126" spans="1:29" ht="15" thickBot="1">
-      <c r="A126" s="36"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
@@ -7317,7 +7354,7 @@
       <c r="AC126" s="15"/>
     </row>
     <row r="127" spans="1:29" ht="15" thickBot="1">
-      <c r="A127" s="36"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
@@ -7348,7 +7385,7 @@
       <c r="AC127" s="15"/>
     </row>
     <row r="128" spans="1:29" ht="15" thickBot="1">
-      <c r="A128" s="36"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
@@ -11410,7 +11447,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11431,15 +11468,15 @@
   <sheetData>
     <row r="1" spans="1:29" ht="14.25" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -11485,7 +11522,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -11512,13 +11549,13 @@
     <row r="3" spans="1:29" ht="33">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -11549,7 +11586,7 @@
     <row r="4" spans="1:29" ht="16.5">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -11582,10 +11619,10 @@
     <row r="5" spans="1:29" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D5" s="6">
         <v>18097489499</v>
@@ -11619,13 +11656,13 @@
     <row r="6" spans="1:29" ht="33">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -11656,13 +11693,13 @@
     <row r="7" spans="1:29" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -17368,7 +17405,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -17386,17 +17423,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="71.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -17408,38 +17445,38 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60">
       <c r="A4" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -17448,7 +17485,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -17457,7 +17494,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -17466,64 +17503,64 @@
     </row>
     <row r="8" spans="1:5" ht="36">
       <c r="A8" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="48">
       <c r="A9" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="36">
       <c r="A10" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="48">
       <c r="A11" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="24">
       <c r="A12" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -17532,33 +17569,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -17577,7 +17593,37 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -17586,7 +17632,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -17595,20 +17641,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>